--- a/sequences_processing/ITS2_CLC/bi_family_ITS2.xlsx
+++ b/sequences_processing/ITS2_CLC/bi_family_ITS2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t xml:space="preserve">Samples</t>
   </si>
@@ -21,6 +21,12 @@
   </si>
   <si>
     <t xml:space="preserve">SIMPSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chao1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACE</t>
   </si>
   <si>
     <t xml:space="preserve">B_2_1</t>
@@ -491,10 +497,16 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1.89720637502713</v>
@@ -502,10 +514,16 @@
       <c r="C2" t="n">
         <v>0.759095914137259</v>
       </c>
+      <c r="D2" t="n">
+        <v>65.1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>56.9078947368421</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
         <v>2.128873755729</v>
@@ -513,10 +531,16 @@
       <c r="C3" t="n">
         <v>0.818815546766959</v>
       </c>
+      <c r="D3" t="n">
+        <v>65.1428571428571</v>
+      </c>
+      <c r="E3" t="n">
+        <v>62.53125</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
         <v>2.22870093128332</v>
@@ -524,10 +548,16 @@
       <c r="C4" t="n">
         <v>0.83259035526731</v>
       </c>
+      <c r="D4" t="n">
+        <v>59</v>
+      </c>
+      <c r="E4" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
         <v>2.19729177993781</v>
@@ -535,10 +565,16 @@
       <c r="C5" t="n">
         <v>0.835771365265381</v>
       </c>
+      <c r="D5" t="n">
+        <v>89</v>
+      </c>
+      <c r="E5" t="n">
+        <v>65.135593220339</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
         <v>1.90869488708406</v>
@@ -546,10 +582,16 @@
       <c r="C6" t="n">
         <v>0.777741682640468</v>
       </c>
+      <c r="D6" t="n">
+        <v>83.6666666666667</v>
+      </c>
+      <c r="E6" t="n">
+        <v>58.5833333333333</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
         <v>1.99187621307396</v>
@@ -557,10 +599,16 @@
       <c r="C7" t="n">
         <v>0.802858794417709</v>
       </c>
+      <c r="D7" t="n">
+        <v>54.5714285714286</v>
+      </c>
+      <c r="E7" t="n">
+        <v>52.7654320987654</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
         <v>1.85073681811657</v>
@@ -568,10 +616,16 @@
       <c r="C8" t="n">
         <v>0.773439471884186</v>
       </c>
+      <c r="D8" t="n">
+        <v>55.25</v>
+      </c>
+      <c r="E8" t="n">
+        <v>45.8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
         <v>1.96441356140723</v>
@@ -579,10 +633,16 @@
       <c r="C9" t="n">
         <v>0.788717606894674</v>
       </c>
+      <c r="D9" t="n">
+        <v>59.3333333333333</v>
+      </c>
+      <c r="E9" t="n">
+        <v>53.8846153846154</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
         <v>1.92175442956724</v>
@@ -590,10 +650,16 @@
       <c r="C10" t="n">
         <v>0.791421943390834</v>
       </c>
+      <c r="D10" t="n">
+        <v>65</v>
+      </c>
+      <c r="E10" t="n">
+        <v>57.6027397260274</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
         <v>2.05609175442164</v>
@@ -601,10 +667,16 @@
       <c r="C11" t="n">
         <v>0.83338896544816</v>
       </c>
+      <c r="D11" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>49.5157894736842</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
         <v>1.97233836390786</v>
@@ -612,10 +684,16 @@
       <c r="C12" t="n">
         <v>0.802052813938021</v>
       </c>
+      <c r="D12" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>52.7931034482759</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
         <v>2.14054842766801</v>
@@ -623,10 +701,16 @@
       <c r="C13" t="n">
         <v>0.812055713732297</v>
       </c>
+      <c r="D13" t="n">
+        <v>70.0833333333333</v>
+      </c>
+      <c r="E13" t="n">
+        <v>63.5242718446602</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
         <v>1.90502456557518</v>
@@ -634,10 +718,16 @@
       <c r="C14" t="n">
         <v>0.779990534571041</v>
       </c>
+      <c r="D14" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>51.2727272727273</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n">
         <v>2.09489324898548</v>
@@ -645,10 +735,16 @@
       <c r="C15" t="n">
         <v>0.817742081201266</v>
       </c>
+      <c r="D15" t="n">
+        <v>69.8888888888889</v>
+      </c>
+      <c r="E15" t="n">
+        <v>64.6629213483146</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n">
         <v>1.77159486486377</v>
@@ -656,10 +752,16 @@
       <c r="C16" t="n">
         <v>0.758323539582852</v>
       </c>
+      <c r="D16" t="n">
+        <v>65.6666666666667</v>
+      </c>
+      <c r="E16" t="n">
+        <v>52.5135135135135</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n">
         <v>1.91228756835966</v>
@@ -667,10 +769,16 @@
       <c r="C17" t="n">
         <v>0.797506284240421</v>
       </c>
+      <c r="D17" t="n">
+        <v>146</v>
+      </c>
+      <c r="E17" t="n">
+        <v>55.1489361702128</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n">
         <v>2.01286053055649</v>
@@ -678,10 +786,16 @@
       <c r="C18" t="n">
         <v>0.816461380308936</v>
       </c>
+      <c r="D18" t="n">
+        <v>57.75</v>
+      </c>
+      <c r="E18" t="n">
+        <v>54.0705882352941</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n">
         <v>1.69015311009541</v>
@@ -689,10 +803,16 @@
       <c r="C19" t="n">
         <v>0.746460937312089</v>
       </c>
+      <c r="D19" t="n">
+        <v>61.3333333333333</v>
+      </c>
+      <c r="E19" t="n">
+        <v>57.0579710144928</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n">
         <v>1.94846783620483</v>
@@ -700,10 +820,16 @@
       <c r="C20" t="n">
         <v>0.806105590778916</v>
       </c>
+      <c r="D20" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>49.4615384615385</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n">
         <v>2.0338989852144</v>
@@ -711,10 +837,16 @@
       <c r="C21" t="n">
         <v>0.804097819007017</v>
       </c>
+      <c r="D21" t="n">
+        <v>65.1428571428571</v>
+      </c>
+      <c r="E21" t="n">
+        <v>61.7647058823529</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n">
         <v>2.16076518967278</v>
@@ -722,10 +854,16 @@
       <c r="C22" t="n">
         <v>0.832923455484241</v>
       </c>
+      <c r="D22" t="n">
+        <v>74.0714285714286</v>
+      </c>
+      <c r="E22" t="n">
+        <v>67.9264705882353</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n">
         <v>2.06749790630045</v>
@@ -733,10 +871,16 @@
       <c r="C23" t="n">
         <v>0.808435981676561</v>
       </c>
+      <c r="D23" t="n">
+        <v>111.25</v>
+      </c>
+      <c r="E23" t="n">
+        <v>59.7058823529412</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n">
         <v>1.96087965362008</v>
@@ -744,10 +888,16 @@
       <c r="C24" t="n">
         <v>0.804369870695339</v>
       </c>
+      <c r="D24" t="n">
+        <v>55.6666666666667</v>
+      </c>
+      <c r="E24" t="n">
+        <v>48.1372549019608</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n">
         <v>1.86526358347624</v>
@@ -755,10 +905,16 @@
       <c r="C25" t="n">
         <v>0.789388481525469</v>
       </c>
+      <c r="D25" t="n">
+        <v>45.1666666666667</v>
+      </c>
+      <c r="E25" t="n">
+        <v>42.4615384615385</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n">
         <v>1.44884740625337</v>
@@ -766,10 +922,16 @@
       <c r="C26" t="n">
         <v>0.576337949290248</v>
       </c>
+      <c r="D26" t="n">
+        <v>74.25</v>
+      </c>
+      <c r="E26" t="n">
+        <v>50.1111111111111</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n">
         <v>2.00854347659792</v>
@@ -777,10 +939,16 @@
       <c r="C27" t="n">
         <v>0.815123628906492</v>
       </c>
+      <c r="D27" t="n">
+        <v>49.3333333333333</v>
+      </c>
+      <c r="E27" t="n">
+        <v>47.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n">
         <v>1.78724948151488</v>
@@ -788,10 +956,16 @@
       <c r="C28" t="n">
         <v>0.785805630030677</v>
       </c>
+      <c r="D28" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="E28" t="n">
+        <v>40.9787234042553</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n">
         <v>1.66072766469503</v>
@@ -799,10 +973,16 @@
       <c r="C29" t="n">
         <v>0.734157866207841</v>
       </c>
+      <c r="D29" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="E29" t="n">
+        <v>48.6595744680851</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n">
         <v>1.97295938547526</v>
@@ -810,10 +990,16 @@
       <c r="C30" t="n">
         <v>0.821524618025787</v>
       </c>
+      <c r="D30" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>45.8823529411765</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n">
         <v>1.8313954008717</v>
@@ -821,10 +1007,16 @@
       <c r="C31" t="n">
         <v>0.741036823216799</v>
       </c>
+      <c r="D31" t="n">
+        <v>59</v>
+      </c>
+      <c r="E31" t="n">
+        <v>53.4444444444444</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n">
         <v>1.77535950172488</v>
@@ -832,10 +1024,16 @@
       <c r="C32" t="n">
         <v>0.742731496301701</v>
       </c>
+      <c r="D32" t="n">
+        <v>56</v>
+      </c>
+      <c r="E32" t="n">
+        <v>42.8571428571429</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n">
         <v>1.97934637526088</v>
@@ -843,10 +1041,16 @@
       <c r="C33" t="n">
         <v>0.806301336090144</v>
       </c>
+      <c r="D33" t="n">
+        <v>60.7222222222222</v>
+      </c>
+      <c r="E33" t="n">
+        <v>58.4556962025316</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n">
         <v>1.9659118886098</v>
@@ -854,10 +1058,16 @@
       <c r="C34" t="n">
         <v>0.799185652108977</v>
       </c>
+      <c r="D34" t="n">
+        <v>66.2857142857143</v>
+      </c>
+      <c r="E34" t="n">
+        <v>60.6046511627907</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n">
         <v>1.95244521771578</v>
@@ -865,10 +1075,16 @@
       <c r="C35" t="n">
         <v>0.802922979179069</v>
       </c>
+      <c r="D35" t="n">
+        <v>61.0833333333333</v>
+      </c>
+      <c r="E35" t="n">
+        <v>55.7611940298507</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n">
         <v>1.55715174404696</v>
@@ -876,10 +1092,16 @@
       <c r="C36" t="n">
         <v>0.682522903483455</v>
       </c>
+      <c r="D36" t="n">
+        <v>47.125</v>
+      </c>
+      <c r="E36" t="n">
+        <v>43.7222222222222</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n">
         <v>1.94832054681267</v>
@@ -887,10 +1109,16 @@
       <c r="C37" t="n">
         <v>0.803661150812972</v>
       </c>
+      <c r="D37" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="E37" t="n">
+        <v>54.9411764705882</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n">
         <v>1.81125140241203</v>
@@ -898,10 +1126,16 @@
       <c r="C38" t="n">
         <v>0.758402832969902</v>
       </c>
+      <c r="D38" t="n">
+        <v>68.125</v>
+      </c>
+      <c r="E38" t="n">
+        <v>53.7954545454545</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n">
         <v>1.60370714617311</v>
@@ -909,10 +1143,16 @@
       <c r="C39" t="n">
         <v>0.684758709019218</v>
       </c>
+      <c r="D39" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>49.1219512195122</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n">
         <v>1.79223843750222</v>
@@ -920,10 +1160,16 @@
       <c r="C40" t="n">
         <v>0.764119345851309</v>
       </c>
+      <c r="D40" t="n">
+        <v>57.125</v>
+      </c>
+      <c r="E40" t="n">
+        <v>49.5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n">
         <v>2.04577248538886</v>
@@ -931,10 +1177,16 @@
       <c r="C41" t="n">
         <v>0.809933244661075</v>
       </c>
+      <c r="D41" t="n">
+        <v>86.25</v>
+      </c>
+      <c r="E41" t="n">
+        <v>54.2916666666667</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n">
         <v>1.95234528630388</v>
@@ -942,10 +1194,16 @@
       <c r="C42" t="n">
         <v>0.808901319336683</v>
       </c>
+      <c r="D42" t="n">
+        <v>72.1666666666667</v>
+      </c>
+      <c r="E42" t="n">
+        <v>51.5263157894737</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n">
         <v>2.11128226695304</v>
@@ -953,16 +1211,28 @@
       <c r="C43" t="n">
         <v>0.844385004906901</v>
       </c>
+      <c r="D43" t="n">
+        <v>45</v>
+      </c>
+      <c r="E43" t="n">
+        <v>41.55</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n">
         <v>1.97460150595353</v>
       </c>
       <c r="C44" t="n">
         <v>0.785276567225732</v>
+      </c>
+      <c r="D44" t="n">
+        <v>63.6666666666667</v>
+      </c>
+      <c r="E44" t="n">
+        <v>51.2592592592593</v>
       </c>
     </row>
   </sheetData>
